--- a/demo/transfer/test_data/transfer_same_one.xlsx
+++ b/demo/transfer/test_data/transfer_same_one.xlsx
@@ -1041,9 +1041,7 @@
       <c r="F2" s="1" t="n">
         <v>888</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>33</v>
-      </c>
+      <c r="G2" s="0" t="n"/>
       <c r="H2" s="0" t="n">
         <v>17</v>
       </c>
